--- a/Product_Backlog/Product Backlog (2).xlsx
+++ b/Product_Backlog/Product Backlog (2).xlsx
@@ -1,28 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_2505\AC\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robert\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{108287F3-5DA0-4D93-BBA0-1DD6EC748862}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF4DD1F-C773-4028-A521-5AFF9099D255}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="39">
   <si>
     <t>Formal User Story/Description</t>
   </si>
@@ -142,13 +140,22 @@
   </si>
   <si>
     <t>As a user I want to be able to return to the home page to do a new search</t>
+  </si>
+  <si>
+    <t>Not attempted</t>
+  </si>
+  <si>
+    <t>Out of scope</t>
+  </si>
+  <si>
+    <t>Not considered priority</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,8 +178,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -191,6 +205,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF2D2D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -204,7 +224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -231,6 +251,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -260,6 +283,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF2D2D"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -274,7 +302,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C8A1BE1E-7B69-4012-A8EB-1859B9C7D071}" name="Table1" displayName="Table1" ref="H4:I10" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="H4:I10" xr:uid="{6B4AF300-0356-4E5D-A9D5-E2A83EEC2289}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H5:I10">
+  <sortState ref="H5:I10">
     <sortCondition ref="H4:H10"/>
   </sortState>
   <tableColumns count="2">
@@ -584,20 +612,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="140.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20.25" customHeight="1">
+    <row r="1" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -608,7 +638,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -622,7 +652,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="30">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -639,7 +669,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="30">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -659,7 +689,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="30">
+    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -679,7 +709,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="30">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -699,7 +729,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="45">
+    <row r="7" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -719,7 +749,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="30">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -739,7 +769,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="30">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -759,7 +789,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="30">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -769,6 +799,12 @@
       <c r="C10" s="2">
         <v>6</v>
       </c>
+      <c r="D10" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" t="s">
+        <v>37</v>
+      </c>
       <c r="H10" t="s">
         <v>22</v>
       </c>
@@ -776,7 +812,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="45">
+    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>23</v>
       </c>
@@ -786,8 +822,14 @@
       <c r="C11" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="30">
+      <c r="D11" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
@@ -797,8 +839,14 @@
       <c r="C12" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="30">
+      <c r="D12" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
@@ -808,8 +856,14 @@
       <c r="C13" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="30">
+      <c r="D13" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -819,8 +873,14 @@
       <c r="C14" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="D14" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>27</v>
       </c>
@@ -834,7 +894,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>29</v>
       </c>
@@ -848,7 +908,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>30</v>
       </c>
@@ -862,7 +922,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>31</v>
       </c>
@@ -876,7 +936,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>32</v>
       </c>
@@ -886,9 +946,11 @@
       <c r="C19" s="9">
         <v>3</v>
       </c>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="D19" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>33</v>
       </c>
@@ -898,9 +960,11 @@
       <c r="C20" s="9">
         <v>1</v>
       </c>
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="D20" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>34</v>
       </c>
@@ -910,9 +974,11 @@
       <c r="C21" s="9">
         <v>2</v>
       </c>
-      <c r="D21" s="4"/>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="D21" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>35</v>
       </c>
@@ -922,12 +988,15 @@
       <c r="C22" s="2">
         <v>1</v>
       </c>
-      <c r="D22" s="8"/>
+      <c r="D22" s="10" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>